--- a/2.项目规划/《口袋医生》项目_测试用例.xlsx
+++ b/2.项目规划/《口袋医生》项目_测试用例.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="354">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1240,12 +1240,216 @@
     <t>可以正确跳转到指定用户的编辑页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到编辑用户资料的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击编辑按钮2.成功跳转到编辑用户资料页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击删除按钮2.对应的用户资料被删除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击删除按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的用户资料消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击批量删除按钮2.选中的一系列用户资料被删除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击批量删除按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中的用户资料被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击保存按钮2.用户管理页面显示更新后的用户资料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的用户个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击保存按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户资料已经存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存更改的用户资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑用户资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击选中按钮2.全部用户信息显示被选中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部用户信息被选中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击选中按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中全部用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击删除按钮2.对应的就诊人资料被删除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击删除按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的就诊人信息消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用就诊人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击批量删除按钮2.选中的一系列就诊人资料被删除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击批量删除按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中的就诊人资料被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击前进按钮。2.跳转到当前页的下一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击前进按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到当前页的下一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击后退按钮2.跳转到当前页的上一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击后退按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到当前页的上一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后退按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用就诊人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击具体页面按钮2.跳转到对应的具体页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击具体页面按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到对应的具体页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体页面按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1335,8 +1539,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1346,7 +1578,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1420,6 +1652,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1454,6 +1687,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1629,14 +1863,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E64" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
@@ -1648,7 +1882,7 @@
     <col min="8" max="8" width="47.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1674,7 +1908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1697,7 +1931,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1723,7 +1957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1749,7 +1983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1772,7 +2006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1795,7 +2029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1818,7 +2052,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1841,7 +2075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1867,7 +2101,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1893,7 +2127,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1919,7 +2153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1945,7 +2179,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1971,7 +2205,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1997,7 +2231,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2023,7 +2257,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="16" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2049,7 +2283,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2075,7 +2309,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2101,7 +2335,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="19" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2127,7 +2361,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2150,7 +2384,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2173,7 +2407,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2196,7 +2430,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="23" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2219,7 +2453,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2242,7 +2476,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2265,7 +2499,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2291,7 +2525,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2314,7 +2548,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2337,7 +2571,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2360,7 +2594,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2380,7 +2614,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2403,7 +2637,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2423,7 +2657,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="33" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2446,7 +2680,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="34" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2469,7 +2703,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="35" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2492,7 +2726,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="36" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2512,7 +2746,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="74.25" customHeight="1">
+    <row r="37" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2538,7 +2772,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2561,7 +2795,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2584,7 +2818,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="47.25" customHeight="1">
+    <row r="40" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2607,7 +2841,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2630,7 +2864,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="81" customHeight="1">
+    <row r="42" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2656,7 +2890,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2679,7 +2913,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2705,7 +2939,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2731,7 +2965,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2757,7 +2991,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="58" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2780,7 +3014,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="59" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2803,7 +3037,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="68.25" customHeight="1">
+    <row r="60" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2826,7 +3060,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="61" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2852,7 +3086,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="60" customHeight="1">
+    <row r="62" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2875,7 +3109,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="63" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2898,7 +3132,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="64" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2921,7 +3155,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="65" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2941,7 +3175,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="66" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2964,7 +3198,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="67" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2987,7 +3221,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="68" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3008,6 +3242,233 @@
       </c>
       <c r="H68" s="6" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -3018,12 +3479,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3031,12 +3492,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.项目规划/《口袋医生》项目_测试用例.xlsx
+++ b/2.项目规划/《口袋医生》项目_测试用例.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="399">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1443,6 +1443,146 @@
   <si>
     <t>具体页面按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>显示常用就诊人信息</t>
+  </si>
+  <si>
+    <t>常用就诊人的更新</t>
+  </si>
+  <si>
+    <t>添加常用就诊人</t>
+  </si>
+  <si>
+    <t>点击进入 添加常用就诊人</t>
+  </si>
+  <si>
+    <t>进入相应界面</t>
+  </si>
+  <si>
+    <t>添加常用就诊人信息</t>
+  </si>
+  <si>
+    <t>填写信息，添加常用就诊人</t>
+  </si>
+  <si>
+    <t>填写个人信息</t>
+  </si>
+  <si>
+    <t>姓名，性别，年龄</t>
+  </si>
+  <si>
+    <t>添加后显示相应的个人信息</t>
+  </si>
+  <si>
+    <t>删除常用就诊人</t>
+  </si>
+  <si>
+    <t>删除常用就诊人，可以删除成功</t>
+  </si>
+  <si>
+    <t>进入常用就诊人界面</t>
+  </si>
+  <si>
+    <t>点击某一常用就诊人 删除</t>
+  </si>
+  <si>
+    <t xml:space="preserve">删除成功，该就诊人信息不再显示 </t>
+  </si>
+  <si>
+    <t>后台管理系统登录</t>
+  </si>
+  <si>
+    <t>系统登录</t>
+  </si>
+  <si>
+    <t>管理员登录</t>
+  </si>
+  <si>
+    <t>存在管理员</t>
+  </si>
+  <si>
+    <t>1、输入用户名
+2、输入密码
+3、输入验证码
+4、确认</t>
+  </si>
+  <si>
+    <t>输入正确的用户名、密码、验证码</t>
+  </si>
+  <si>
+    <t>登录成功，进入后台管理系统首页</t>
+  </si>
+  <si>
+    <t>输入错误的用户名</t>
+  </si>
+  <si>
+    <t>提示“用户名不存在”</t>
+  </si>
+  <si>
+    <t>输入正确的用户名，错误的密码，正确的验证码</t>
+  </si>
+  <si>
+    <t>提示“密码错误”</t>
+  </si>
+  <si>
+    <t>输入正确的用户名，正确的密码，错误的验证码</t>
+  </si>
+  <si>
+    <t>提示“验证码错误”</t>
+  </si>
+  <si>
+    <t>验证码更新</t>
+  </si>
+  <si>
+    <t>点击换一换</t>
+  </si>
+  <si>
+    <t>验证码成功更换</t>
+  </si>
+  <si>
+    <t>后台管理系统首页</t>
+  </si>
+  <si>
+    <t>首页信息</t>
+  </si>
+  <si>
+    <t>APP使用检测</t>
+  </si>
+  <si>
+    <t>存在用户使用APP</t>
+  </si>
+  <si>
+    <t>显示具体使用信息</t>
+  </si>
+  <si>
+    <t>系统管理</t>
+  </si>
+  <si>
+    <t>管理员列表</t>
+  </si>
+  <si>
+    <t>点击职业工具栏中某一职位</t>
+  </si>
+  <si>
+    <t>显示相应管理员列表</t>
+  </si>
+  <si>
+    <t>添加管理员</t>
+  </si>
+  <si>
+    <t>1、点击添加管理员按钮
+2、添加相关信息
+3、提交</t>
+  </si>
+  <si>
+    <t>输入正确信息</t>
+  </si>
+  <si>
+    <t>添加成功</t>
   </si>
 </sst>
 </file>
@@ -1866,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:XFD100"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2989,6 +3129,268 @@
       </c>
       <c r="H46" s="6" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">

--- a/2.项目规划/《口袋医生》项目_测试用例.xlsx
+++ b/2.项目规划/《口袋医生》项目_测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="437">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1583,6 +1583,120 @@
   </si>
   <si>
     <t>添加成功</t>
+  </si>
+  <si>
+    <t>APP使用监测</t>
+  </si>
+  <si>
+    <t>在线咨询以及预约挂号量</t>
+  </si>
+  <si>
+    <t>存在用户预约</t>
+  </si>
+  <si>
+    <t>选择时间区间</t>
+  </si>
+  <si>
+    <t>显示正确的信息</t>
+  </si>
+  <si>
+    <t>链接</t>
+  </si>
+  <si>
+    <t>链接是否可用</t>
+  </si>
+  <si>
+    <t>点击左边链接，进入相应管理页面</t>
+  </si>
+  <si>
+    <t>进入到正确的页面</t>
+  </si>
+  <si>
+    <t>今天昨天总计</t>
+  </si>
+  <si>
+    <t>点击相应按钮（总计，今天，昨天）</t>
+  </si>
+  <si>
+    <t>获取相应信息</t>
+  </si>
+  <si>
+    <t>往年数据折线图</t>
+  </si>
+  <si>
+    <t>所对应的数据相同</t>
+  </si>
+  <si>
+    <t>在线咨询表</t>
+  </si>
+  <si>
+    <t>咨询清单</t>
+  </si>
+  <si>
+    <t>用户发布的问题</t>
+  </si>
+  <si>
+    <t>存在用户发布问题</t>
+  </si>
+  <si>
+    <t>选择日期</t>
+  </si>
+  <si>
+    <t>显示正确的问题清单</t>
+  </si>
+  <si>
+    <t>问题清单的更新</t>
+  </si>
+  <si>
+    <t>用户新发布了问题</t>
+  </si>
+  <si>
+    <t>在前台发布问题，查看后台是否更新</t>
+  </si>
+  <si>
+    <t>问题清单成功更新</t>
+  </si>
+  <si>
+    <t>问题解答状况</t>
+  </si>
+  <si>
+    <t>医生成功解答问题</t>
+  </si>
+  <si>
+    <t>编辑信息</t>
+  </si>
+  <si>
+    <t>问题清单的编辑</t>
+  </si>
+  <si>
+    <t>点击链接进入编辑页面，输入信息提交</t>
+  </si>
+  <si>
+    <t>输入问题信息</t>
+  </si>
+  <si>
+    <t>编辑成功</t>
+  </si>
+  <si>
+    <t>问题清单具体信息</t>
+  </si>
+  <si>
+    <t>用户发布了问题</t>
+  </si>
+  <si>
+    <t>点击所发布的问题</t>
+  </si>
+  <si>
+    <t>进入问题详情页面</t>
+  </si>
+  <si>
+    <t>用户发布的问题是否冲突</t>
+  </si>
+  <si>
+    <t>同一用户发布了相同的问题</t>
+  </si>
+  <si>
+    <t>显示冲突的问题信息</t>
   </si>
 </sst>
 </file>
@@ -2006,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3644,6 +3758,244 @@
       </c>
       <c r="H68" s="6" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">

--- a/2.项目规划/《口袋医生》项目_测试用例.xlsx
+++ b/2.项目规划/《口袋医生》项目_测试用例.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="509">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1697,6 +1697,231 @@
   </si>
   <si>
     <t>显示冲突的问题信息</t>
+  </si>
+  <si>
+    <t>1、输入用户名2、输入密码
+3、输入验证码4、确认</t>
+  </si>
+  <si>
+    <t>1、输入用户名2、输入密码
+3、输入验证码5、确认</t>
+  </si>
+  <si>
+    <t>1、输入用户名2、输入密码
+3、输入验证码6、确认</t>
+  </si>
+  <si>
+    <t>输入正确的用户名；
+错误的密码，正确的验证码</t>
+  </si>
+  <si>
+    <t>1、输入用户名2、输入密码
+3、输入验证码7、确认</t>
+  </si>
+  <si>
+    <t>输入正确的用户名、密码；
+错误的验证码</t>
+  </si>
+  <si>
+    <t>管理员登录时记住密码</t>
+  </si>
+  <si>
+    <t>1、输入用户名2、输入密码3、输入验证码4、勾选上记住密码5、确认6、退出系统7、再次登录</t>
+  </si>
+  <si>
+    <t>正确的用户名、密码、验证码</t>
+  </si>
+  <si>
+    <t>输入用户名后，对应的密码出现在密码框</t>
+  </si>
+  <si>
+    <t>验证码更换</t>
+  </si>
+  <si>
+    <t>1、点击换一换</t>
+  </si>
+  <si>
+    <t>编辑管理人员信息</t>
+  </si>
+  <si>
+    <t>编辑按钮</t>
+  </si>
+  <si>
+    <t>进入系统管理页面</t>
+  </si>
+  <si>
+    <t>点击编辑</t>
+  </si>
+  <si>
+    <t>进入后台人员编辑信息页面</t>
+  </si>
+  <si>
+    <t>删除管理人员信息</t>
+  </si>
+  <si>
+    <t>删除按钮</t>
+  </si>
+  <si>
+    <t>点击删除</t>
+  </si>
+  <si>
+    <t>删除对应的人员信息并刷新页面</t>
+  </si>
+  <si>
+    <t>切换人员信息分类</t>
+  </si>
+  <si>
+    <t>切换导航栏</t>
+  </si>
+  <si>
+    <t>点击相应人员分类按钮</t>
+  </si>
+  <si>
+    <t>显示分类下人员信息</t>
+  </si>
+  <si>
+    <t>后台人员编辑信息</t>
+  </si>
+  <si>
+    <t>修改用户头像</t>
+  </si>
+  <si>
+    <t>用户头像的修改</t>
+  </si>
+  <si>
+    <t>存在用户</t>
+  </si>
+  <si>
+    <t>1、进入用户列表2、点击某一用户后的编辑按钮3、进入编辑页面4、修改用户头像</t>
+  </si>
+  <si>
+    <t>图片文件</t>
+  </si>
+  <si>
+    <t>成功上传图片</t>
+  </si>
+  <si>
+    <t>修改用户名</t>
+  </si>
+  <si>
+    <t>用户名的修改</t>
+  </si>
+  <si>
+    <t>正确的用户名</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>重复的用户名</t>
+  </si>
+  <si>
+    <t>提示“该用户名已存在”</t>
+  </si>
+  <si>
+    <t>修改真实姓名</t>
+  </si>
+  <si>
+    <t>真实姓名的修改</t>
+  </si>
+  <si>
+    <t>真实姓名</t>
+  </si>
+  <si>
+    <t>修改地址</t>
+  </si>
+  <si>
+    <t>地址的修改</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、进入编辑页面2、点击地址输入框
+3、输入地址4、提交
+</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>管理人员的信息管理</t>
+  </si>
+  <si>
+    <t>批量删除按钮</t>
+  </si>
+  <si>
+    <t>1.点击批量删除按钮2.选择要删除的人员</t>
+  </si>
+  <si>
+    <t>选中的人员信息删除并刷新页面</t>
+  </si>
+  <si>
+    <t>全选按钮</t>
+  </si>
+  <si>
+    <t>点击全选按钮</t>
+  </si>
+  <si>
+    <t>全部人员信息被选中</t>
+  </si>
+  <si>
+    <t>添加按钮</t>
+  </si>
+  <si>
+    <t>点击添加按钮</t>
+  </si>
+  <si>
+    <t>进入添加成员页面</t>
+  </si>
+  <si>
+    <t>添加后台人员</t>
+  </si>
+  <si>
+    <t>填写用户头像</t>
+  </si>
+  <si>
+    <t>打开一个添加用户页面</t>
+  </si>
+  <si>
+    <t>1、进入添加用户列表2、上传用户头像</t>
+  </si>
+  <si>
+    <t>填写用户名</t>
+  </si>
+  <si>
+    <t>1、进入添加用户列表3、填写用户名</t>
+  </si>
+  <si>
+    <t>1、进入添加用户列表4、填写用户名</t>
+  </si>
+  <si>
+    <t>填写真实姓名</t>
+  </si>
+  <si>
+    <t>1、进入添加用户列表5、填写真实姓名</t>
+  </si>
+  <si>
+    <t>填写地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、进入添加用户页面2、输入地址
+</t>
+  </si>
+  <si>
+    <t>上传头像</t>
+  </si>
+  <si>
+    <t>头像上传</t>
+  </si>
+  <si>
+    <t>存在</t>
+  </si>
+  <si>
+    <t>点击上传文件</t>
+  </si>
+  <si>
+    <t>选择图片</t>
+  </si>
+  <si>
+    <t>上传成功</t>
   </si>
 </sst>
 </file>
@@ -2118,25 +2343,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="48.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="47.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="48.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="47.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2162,7 +2387,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2185,7 +2410,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2211,7 +2436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2237,7 +2462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2260,7 +2485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2283,7 +2508,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2306,7 +2531,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2329,7 +2554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2355,7 +2580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2381,7 +2606,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2407,7 +2632,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2433,7 +2658,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2459,7 +2684,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2485,7 +2710,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2511,7 +2736,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2537,7 +2762,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2563,7 +2788,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2589,7 +2814,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2615,7 +2840,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2638,7 +2863,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2661,7 +2886,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2684,7 +2909,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2707,7 +2932,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2730,7 +2955,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2753,7 +2978,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2779,7 +3004,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2802,7 +3027,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2825,7 +3050,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2848,7 +3073,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2868,7 +3093,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2891,7 +3116,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2911,7 +3136,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2934,7 +3159,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2957,7 +3182,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2980,7 +3205,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3000,7 +3225,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3026,7 +3251,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3049,7 +3274,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3072,7 +3297,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3095,7 +3320,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3118,7 +3343,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3144,7 +3369,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3167,7 +3392,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3193,7 +3418,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3219,7 +3444,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3245,7 +3470,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3268,7 +3493,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3294,7 +3519,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3317,7 +3542,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3343,7 +3568,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3369,7 +3594,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3395,7 +3620,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3421,7 +3646,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3441,7 +3666,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3461,7 +3686,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3484,7 +3709,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3507,7 +3732,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3530,7 +3755,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3553,7 +3778,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3576,7 +3801,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3602,7 +3827,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3625,7 +3850,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3648,7 +3873,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3671,7 +3896,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3691,7 +3916,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3714,7 +3939,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3737,7 +3962,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3760,7 +3985,272 @@
         <v>302</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3780,7 +4270,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3803,7 +4293,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3823,7 +4313,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3846,7 +4336,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3866,7 +4356,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3889,7 +4379,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3912,7 +4402,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3932,7 +4422,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3955,7 +4445,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3978,7 +4468,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3998,7 +4488,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -4021,7 +4511,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4044,7 +4534,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -4067,7 +4557,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -4093,7 +4583,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -4119,7 +4609,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -4142,7 +4632,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -4165,7 +4655,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -4185,7 +4675,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -4205,7 +4695,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -4223,6 +4713,315 @@
       </c>
       <c r="H100" s="6" t="s">
         <v>350</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -4238,7 +5037,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4251,7 +5050,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
